--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -4,19 +4,215 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DataSetRegistrationUser" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$31</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">vankatabe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">The peach-colored firelds were taken from the previous homework - Possible negative tests.xlsx 'First iteration'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>vankatabe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+= Test name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>vankatabe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+count starts from 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>vankatabe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+count starts from 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>vankatabe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Username Already Used for Registration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">vankatabe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Here Username must be unique / not already used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">vankatabe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>email Already Used for Registration</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="95">
   <si>
     <t>Key</t>
   </si>
@@ -31,13 +227,283 @@
   </si>
   <si>
     <t>TestUserBuro</t>
+  </si>
+  <si>
+    <t>FirstNameField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Deianov</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>BirthMonth</t>
+  </si>
+  <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>BirthYear</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>MyUsername</t>
+  </si>
+  <si>
+    <t>user@test.com</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Public\\Pictures\\Sample Pictures\\Koala.jpg</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <t>validPass</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>LastNameField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>FirstNameLastNameField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>HobbyCheckboxes_Unchecked_ErrorMessage</t>
+  </si>
+  <si>
+    <t>TelephoneNumberField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>TelephoneNumberField_TooShortNumber_ErrorMessage</t>
+  </si>
+  <si>
+    <t>TelephoneNumberField_NonNumericalCharacters_ErrorMessage</t>
+  </si>
+  <si>
+    <t>012345678</t>
+  </si>
+  <si>
+    <t>0123456789abc</t>
+  </si>
+  <si>
+    <t>UsernameField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>UsernameField_DuplicateUsername_ErrorMessage</t>
+  </si>
+  <si>
+    <t>EmailField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>EmailField_InvalidEmailAddressFormat_ErrorMessage</t>
+  </si>
+  <si>
+    <t>invalid.email-address@format</t>
+  </si>
+  <si>
+    <t>EmailField_NotAllowedCharacters_ErrorMessage</t>
+  </si>
+  <si>
+    <t>user@tes;:t.com</t>
+  </si>
+  <si>
+    <t>EmailField_NonAnsiChars_ErrorMessage</t>
+  </si>
+  <si>
+    <t>userюзер@test.com</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Both names</t>
+  </si>
+  <si>
+    <t>Hobby</t>
+  </si>
+  <si>
+    <t>not selected</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>invalid length</t>
+  </si>
+  <si>
+    <t>invalid characters</t>
+  </si>
+  <si>
+    <t>already registered</t>
+  </si>
+  <si>
+    <t>invalid format - no @ or no '.' after @</t>
+  </si>
+  <si>
+    <t>invalid characters - i.e. ';' in the middle</t>
+  </si>
+  <si>
+    <t>non-ANSI characters</t>
+  </si>
+  <si>
+    <t>Profile pic</t>
+  </si>
+  <si>
+    <t>invalid file type</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>not matching</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>should display error message and does, but it doesn't stay for long</t>
+  </si>
+  <si>
+    <t>* This field is required</t>
+  </si>
+  <si>
+    <t>* Minimum 10 Digits starting with Country Code</t>
+  </si>
+  <si>
+    <t>Error: Username already exists</t>
+  </si>
+  <si>
+    <t>* Invalid email address</t>
+  </si>
+  <si>
+    <t>Error: E-mailField must contain a valid email address</t>
+  </si>
+  <si>
+    <t>Error: E-mail address already exists</t>
+  </si>
+  <si>
+    <t>* Invalid File</t>
+  </si>
+  <si>
+    <t>* Minimum 8 characters required</t>
+  </si>
+  <si>
+    <t>* Fields do not match</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>username + email</t>
+  </si>
+  <si>
+    <t>already used</t>
+  </si>
+  <si>
+    <t>// If username is already used, only Username error appears, not Email error</t>
+  </si>
+  <si>
+    <t>EmailField_DuplicateEmail_ErrorMessage</t>
+  </si>
+  <si>
+    <t>MyUsername4</t>
+  </si>
+  <si>
+    <t>PictureField_InvalidFileFormat_ErrorMessage</t>
+  </si>
+  <si>
+    <t>C:\\Program Files (x86)\\Microsoft Silverlight\\sllauncher.exe</t>
+  </si>
+  <si>
+    <t>PassworField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>shortPs</t>
+  </si>
+  <si>
+    <t>PassworField_TooShortPassword_ErrorMessage</t>
+  </si>
+  <si>
+    <t>ConfirmPassworField_Empty_ErrorMessage</t>
+  </si>
+  <si>
+    <t>ConfirmPasswordField_NotMatchingPassword_ErrorMessage</t>
+  </si>
+  <si>
+    <t>notMatchingConfirmPassString</t>
+  </si>
+  <si>
+    <t>ConfirmPasswordField_NotMatchingPassword_ErrorMessageInPassStrengthField</t>
+  </si>
+  <si>
+    <t>Mismatch -- in the Password Strength field</t>
+  </si>
+  <si>
+    <t>UsernameFieldAndEmailField_DuplicateEmailAndUsername_ErrorMessages</t>
+  </si>
+  <si>
+    <t>0,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +511,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +576,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -408,14 +926,1404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="18.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.26953125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7265625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1980</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A22 G3 G2 G4:G22" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -423,7 +2331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
     <sheet name="DataSetRegistrationUser" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DataSetInteractionPages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DataSetInteractionPages!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="98">
   <si>
     <t>Key</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>DefaultFunctionality_DragToOppositeCorner_ElementMovedToOppositeCorner</t>
+  </si>
+  <si>
+    <t>HorizontalOffset</t>
+  </si>
+  <si>
+    <t>VerticalOffset</t>
   </si>
 </sst>
 </file>
@@ -929,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -2329,14 +2338,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="99">
   <si>
     <t>Key</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>VerticalOffset</t>
+  </si>
+  <si>
+    <t>ConstrainMovementHorizontal_DragDiagonally_ElementMovedHorizontallyOnly</t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2373,6 +2376,17 @@
         <v>140</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -12,7 +12,7 @@
     <sheet name="DataSetInteractionPages" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DataSetInteractionPages!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DataSetInteractionPages!$A$1:$A$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="112">
   <si>
     <t>Key</t>
   </si>
@@ -509,6 +509,45 @@
   </si>
   <si>
     <t>ConstrainMovementHorizontal_DragDiagonally_ElementMovedHorizontallyOnly</t>
+  </si>
+  <si>
+    <t>CursorStyle_DragDiagonallyAllElements_ElementsMovedAccordingly</t>
+  </si>
+  <si>
+    <t>EventsElement_DragDiagonally_DragCountersIncreasedByOne</t>
+  </si>
+  <si>
+    <t>DraggableAndSortable_DragItem2ToListBottom_Item2IsAtListBottom</t>
+  </si>
+  <si>
+    <t>Draggable</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>ItemsFromEachCategory_DragAndDropToTargetArea_TargetAreaContainsTheItems</t>
+  </si>
+  <si>
+    <t>Droppable</t>
+  </si>
+  <si>
+    <t>ItemCat1</t>
+  </si>
+  <si>
+    <t>ItemCat2</t>
+  </si>
+  <si>
+    <t>ItemCat3</t>
+  </si>
+  <si>
+    <t>Lolcat Shirt</t>
+  </si>
+  <si>
+    <t>Black Leather</t>
+  </si>
+  <si>
+    <t>iPad</t>
   </si>
 </sst>
 </file>
@@ -588,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -598,6 +637,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2341,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2352,20 +2394,36 @@
     <col min="1" max="1" width="37.26953125" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" customWidth="1"/>
     <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2375,16 +2433,81 @@
       <c r="C2">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -211,8 +211,67 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vankatabe:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+size constraint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">vankatabe:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>size constraint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="115">
   <si>
     <t>Key</t>
   </si>
@@ -548,13 +607,22 @@
   </si>
   <si>
     <t>iPad</t>
+  </si>
+  <si>
+    <t>ResizableItem_ResizeSides_ItemSidesResizedProperly</t>
+  </si>
+  <si>
+    <t>Resizable</t>
+  </si>
+  <si>
+    <t>ResizableConstrainedItem_ResizeSidesMoreThanConstraints_ItemResizeConstrainedByConstraints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,6 +661,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2382,11 +2463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2510,7 +2591,37 @@
         <v>105</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11">
+        <v>350</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="120">
   <si>
     <t>Key</t>
   </si>
@@ -616,6 +616,21 @@
   </si>
   <si>
     <t>ResizableConstrainedItem_ResizeSidesMoreThanConstraints_ItemResizeConstrainedByConstraints</t>
+  </si>
+  <si>
+    <t>SelectableItems_SelectThree_SelectedElementsStatusChangedToSelected</t>
+  </si>
+  <si>
+    <t>Selectable</t>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Item 2</t>
+  </si>
+  <si>
+    <t>Item 1</t>
   </si>
 </sst>
 </file>
@@ -2464,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2619,6 +2634,23 @@
         <v>113</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="117">
   <si>
     <t>Key</t>
   </si>
@@ -591,15 +591,6 @@
     <t>Droppable</t>
   </si>
   <si>
-    <t>ItemCat1</t>
-  </si>
-  <si>
-    <t>ItemCat2</t>
-  </si>
-  <si>
-    <t>ItemCat3</t>
-  </si>
-  <si>
     <t>Lolcat Shirt</t>
   </si>
   <si>
@@ -618,19 +609,19 @@
     <t>ResizableConstrainedItem_ResizeSidesMoreThanConstraints_ItemResizeConstrainedByConstraints</t>
   </si>
   <si>
-    <t>SelectableItems_SelectThree_SelectedElementsStatusChangedToSelected</t>
-  </si>
-  <si>
     <t>Selectable</t>
   </si>
   <si>
-    <t>Item 5</t>
-  </si>
-  <si>
-    <t>Item 2</t>
-  </si>
-  <si>
-    <t>Item 1</t>
+    <t>SelectableItems_SelectTwo_SelectedElementsStatusChangedToSelected</t>
+  </si>
+  <si>
+    <t>Item1</t>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Item3</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -2479,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2506,13 +2497,13 @@
         <v>97</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
@@ -2523,12 +2514,15 @@
       <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>150</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>140</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="H2" t="s">
         <v>102</v>
       </c>
@@ -2537,12 +2531,15 @@
       <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="H3" t="s">
         <v>102</v>
       </c>
@@ -2551,12 +2548,15 @@
       <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>25</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4" t="s">
         <v>102</v>
       </c>
@@ -2565,12 +2565,15 @@
       <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5" t="s">
         <v>102</v>
       </c>
@@ -2579,77 +2582,116 @@
       <c r="A6" t="s">
         <v>101</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>100</v>
       </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="H8" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2">
         <v>120</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>90</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2">
         <v>350</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>250</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>116</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="119">
   <si>
     <t>Key</t>
   </si>
@@ -612,9 +612,6 @@
     <t>Selectable</t>
   </si>
   <si>
-    <t>SelectableItems_SelectTwo_SelectedElementsStatusChangedToSelected</t>
-  </si>
-  <si>
     <t>Item1</t>
   </si>
   <si>
@@ -622,6 +619,15 @@
   </si>
   <si>
     <t>Item3</t>
+  </si>
+  <si>
+    <t>SelectableItems_SelectTwoNonAdjacent_SelectedElementsStatusChangedToSelected</t>
+  </si>
+  <si>
+    <t>SelectableItems_SelectItem_SelectedItemNumberIsDisplayed</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2479,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,13 +2503,13 @@
         <v>97</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
@@ -2671,7 +2677,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2687,11 +2693,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="H14" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="122">
   <si>
     <t>Key</t>
   </si>
@@ -628,6 +628,15 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>DefaultFunctionality_DragLastItemToListTop_LastItemIsAtListTop</t>
+  </si>
+  <si>
+    <t>Sortable</t>
+  </si>
+  <si>
+    <t>ConnectLists_DragOneSortableItemFromFirstListToSecondList_SortableItemItemMovedToSecondList</t>
   </si>
 </sst>
 </file>
@@ -2476,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2707,6 +2716,31 @@
         <v>112</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
   <si>
     <t>Key</t>
   </si>
@@ -636,7 +636,10 @@
     <t>Sortable</t>
   </si>
   <si>
-    <t>ConnectLists_DragOneSortableItemFromFirstListToSecondList_SortableItemItemMovedToSecondList</t>
+    <t>ConnectLists_DragOneSortableItemFromFirstListToSecondList_NumberOfItemsChangedAccordingly</t>
+  </si>
+  <si>
+    <t>Grid_DragOneSortableItemAfterAnother_OrderOfNumberedSortableItemsChangedAccordingly</t>
   </si>
 </sst>
 </file>
@@ -2485,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2734,11 +2737,22 @@
       <c r="A17" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="2">
-        <v>5</v>
+      <c r="D17" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="123">
   <si>
     <t>Key</t>
   </si>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2491,7 +2491,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,6 +2754,9 @@
       <c r="E18" s="2">
         <v>7</v>
       </c>
+      <c r="H18" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
+++ b/SeleniumTestsDemoQaPage/DataDrivenTests/UserData.xlsx
@@ -225,7 +225,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vankatabe:</t>
         </r>
@@ -234,7 +235,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 size constraint</t>
@@ -249,7 +251,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">vankatabe:
 </t>
@@ -271,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="125">
   <si>
     <t>Key</t>
   </si>
@@ -504,9 +507,6 @@
     <t>* Fields do not match</t>
   </si>
   <si>
-    <t>effect</t>
-  </si>
-  <si>
     <t>username + email</t>
   </si>
   <si>
@@ -640,13 +640,22 @@
   </si>
   <si>
     <t>Grid_DragOneSortableItemAfterAnother_OrderOfNumberedSortableItemsChangedAccordingly</t>
+  </si>
+  <si>
+    <t>Asserter</t>
+  </si>
+  <si>
+    <t>AssertNameErrorMessage</t>
+  </si>
+  <si>
+    <t>Effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,19 +694,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1086,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,11 +1109,12 @@
     <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7265625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.7265625" style="2"/>
+    <col min="20" max="20" width="15.81640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.7265625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -1175,11 +1172,14 @@
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -1235,11 +1235,14 @@
       <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>21</v>
@@ -1295,11 +1298,14 @@
       <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>21</v>
@@ -1353,11 +1359,11 @@
       <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1413,11 +1419,11 @@
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>21</v>
@@ -1473,11 +1479,11 @@
       <c r="S6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>21</v>
@@ -1535,11 +1541,11 @@
       <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>21</v>
@@ -1597,11 +1603,11 @@
       <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="U8" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -1657,11 +1663,11 @@
       <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>21</v>
@@ -1719,11 +1725,11 @@
       <c r="S10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="U10" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -1779,11 +1785,11 @@
       <c r="S11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
@@ -1841,11 +1847,11 @@
       <c r="S12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
@@ -1903,11 +1909,11 @@
       <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="U13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
@@ -1965,11 +1971,11 @@
       <c r="S14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>20</v>
@@ -1992,7 +1998,7 @@
         <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>21</v>
@@ -2010,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>23</v>
@@ -2027,11 +2033,11 @@
       <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>20</v>
@@ -2054,7 +2060,7 @@
         <v>46</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>21</v>
@@ -2078,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>25</v>
@@ -2089,11 +2095,11 @@
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>20</v>
@@ -2116,7 +2122,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>
@@ -2149,11 +2155,11 @@
       <c r="S17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="U17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
@@ -2176,7 +2182,7 @@
         <v>46</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>
@@ -2206,16 +2212,16 @@
         <v>25</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="U18" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>20</v>
@@ -2238,7 +2244,7 @@
         <v>46</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -2271,11 +2277,12 @@
         <v>26</v>
       </c>
       <c r="S19" s="3"/>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="3"/>
+      <c r="U19" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>20</v>
@@ -2298,7 +2305,7 @@
         <v>46</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>21</v>
@@ -2331,13 +2338,14 @@
         <v>26</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="T20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -2348,7 +2356,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>20</v>
@@ -2360,7 +2368,7 @@
         <v>46</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>21</v>
@@ -2393,24 +2401,25 @@
         <v>26</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>20</v>
@@ -2422,7 +2431,7 @@
         <v>46</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>21</v>
@@ -2457,21 +2466,21 @@
       <c r="S22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2509,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
         <v>150</v>
@@ -2542,12 +2551,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
@@ -2559,12 +2568,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2">
         <v>20</v>
@@ -2576,12 +2585,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
@@ -2593,12 +2602,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2610,7 +2619,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2622,21 +2631,21 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -2648,7 +2657,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
         <v>120</v>
@@ -2660,12 +2669,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2">
         <v>350</v>
@@ -2677,7 +2686,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2689,7 +2698,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2701,27 +2710,27 @@
       </c>
       <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -2730,23 +2739,23 @@
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -2755,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
